--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,114 +413,278 @@
         <v>result</v>
       </c>
       <c r="D1" t="str">
+        <v>ownTeam</v>
+      </c>
+      <c r="E1" t="str">
+        <v>oppTeam</v>
+      </c>
+      <c r="F1" t="str">
         <v>batsman</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>totalRuns</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>totalBalls</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>total4s</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>total6s</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>sr</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> October 17 2020</v>
+        <v xml:space="preserve"> October 25 2020</v>
       </c>
       <c r="C2" t="str">
-        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+        <v>Royals won by 8 wickets (with 10 balls remaining)</v>
       </c>
       <c r="D2" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F2" t="str">
         <v>Sanju Samson †</v>
       </c>
-      <c r="E2" t="str">
-        <v>9</v>
-      </c>
-      <c r="F2" t="str">
-        <v>6</v>
-      </c>
       <c r="G2" t="str">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H2" t="str">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I2" t="str">
-        <v>150.00</v>
+        <v>4</v>
+      </c>
+      <c r="J2" t="str">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
+        <v>174.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> September 22 2020</v>
+        <v xml:space="preserve"> October 17 2020</v>
       </c>
       <c r="C3" t="str">
-        <v>Royals won by 16 runs</v>
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D3" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F3" t="str">
         <v>Sanju Samson †</v>
       </c>
-      <c r="E3" t="str">
-        <v>74</v>
-      </c>
-      <c r="F3" t="str">
-        <v>32</v>
-      </c>
       <c r="G3" t="str">
+        <v>9</v>
+      </c>
+      <c r="H3" t="str">
+        <v>6</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
         <v>1</v>
       </c>
-      <c r="H3" t="str">
-        <v>9</v>
-      </c>
-      <c r="I3" t="str">
-        <v>231.25</v>
+      <c r="K3" t="str">
+        <v>150.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> October 30 2020</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G4" t="str">
+        <v>48</v>
+      </c>
+      <c r="H4" t="str">
+        <v>25</v>
+      </c>
+      <c r="I4" t="str">
+        <v>4</v>
+      </c>
+      <c r="J4" t="str">
+        <v>3</v>
+      </c>
+      <c r="K4" t="str">
+        <v>192.00</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" t="str">
         <v xml:space="preserve"> October 22 2020</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D5" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F5" t="str">
         <v>Sanju Samson †</v>
       </c>
-      <c r="E4" t="str">
+      <c r="G5" t="str">
         <v>36</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H5" t="str">
         <v>26</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I5" t="str">
         <v>3</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J5" t="str">
         <v>1</v>
       </c>
-      <c r="I4" t="str">
+      <c r="K5" t="str">
         <v>138.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> November 01 2020</v>
+      </c>
+      <c r="C6" t="str">
+        <v>KKR won by 60 runs</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v>25.00</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve"> September 22 2020</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G7" t="str">
+        <v>74</v>
+      </c>
+      <c r="H7" t="str">
+        <v>32</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <v>9</v>
+      </c>
+      <c r="K7" t="str">
+        <v>231.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> October 19 2020</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>3</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>0.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Sanju Samson †.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -682,9 +682,254 @@
         <v>174.19</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B9" t="str">
+        <v xml:space="preserve"> October 30 2020</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G9" t="str">
+        <v>48</v>
+      </c>
+      <c r="H9" t="str">
+        <v>25</v>
+      </c>
+      <c r="I9" t="str">
+        <v>4</v>
+      </c>
+      <c r="J9" t="str">
+        <v>3</v>
+      </c>
+      <c r="K9" t="str">
+        <v>192.00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B10" t="str">
+        <v xml:space="preserve"> October 25 2020</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Royals won by 8 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G10" t="str">
+        <v>54</v>
+      </c>
+      <c r="H10" t="str">
+        <v>31</v>
+      </c>
+      <c r="I10" t="str">
+        <v>4</v>
+      </c>
+      <c r="J10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <v>174.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve"> October 22 2020</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G11" t="str">
+        <v>36</v>
+      </c>
+      <c r="H11" t="str">
+        <v>26</v>
+      </c>
+      <c r="I11" t="str">
+        <v>3</v>
+      </c>
+      <c r="J11" t="str">
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <v>138.46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve"> September 22 2020</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G12" t="str">
+        <v>74</v>
+      </c>
+      <c r="H12" t="str">
+        <v>32</v>
+      </c>
+      <c r="I12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J12" t="str">
+        <v>9</v>
+      </c>
+      <c r="K12" t="str">
+        <v>231.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> November 01 2020</v>
+      </c>
+      <c r="C13" t="str">
+        <v>KKR won by 60 runs</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>25.00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve"> October 19 2020</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve"> October 17 2020</v>
+      </c>
+      <c r="C15" t="str">
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Sanju Samson †</v>
+      </c>
+      <c r="G15" t="str">
+        <v>9</v>
+      </c>
+      <c r="H15" t="str">
+        <v>6</v>
+      </c>
+      <c r="I15" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
   </ignoredErrors>
 </worksheet>
 </file>